--- a/02  DELIVERABLES DOCS.xlsx
+++ b/02  DELIVERABLES DOCS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8e65a90f44b1ce3d/Desktop/MASAI/01_SDET/HACKHATHON PROJECT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="8_{0443EEDB-64DA-4BA6-801A-E21D50A17FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9EA4D1B-DF74-4B6F-8B8E-DE1673E143E5}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="8_{0443EEDB-64DA-4BA6-801A-E21D50A17FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BCE83B0-8CEF-403E-AC5F-A23AA09C6834}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{5B141B9C-2238-49DA-BDEB-470FE681ABFD}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="325">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1836,6 +1836,226 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>29765</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2378086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5708519-01A1-4F71-9B5E-93F4D34F624F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14287500" y="25201563"/>
+          <a:ext cx="4210182" cy="2378086"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>29765</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2378086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FE0C87D-93A3-40B3-99F5-C078D9435AAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14287500" y="27596042"/>
+          <a:ext cx="4210182" cy="2378086"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>29765</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2378086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06B72A90-1F68-424D-B5F1-19FE91B204B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14287500" y="30003750"/>
+          <a:ext cx="4210182" cy="2378086"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>29765</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2378086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26198411-4AB2-4B85-83CF-CA486D791D16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14287500" y="32398229"/>
+          <a:ext cx="4210182" cy="2378086"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>29765</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2378086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{842F1F43-CBC7-4095-9EE4-F5FF7A04EB8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14287500" y="34779479"/>
+          <a:ext cx="4210182" cy="2378086"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4697,8 +4917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B78DB4-BBAE-4A83-9D83-50387C105F3B}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="72" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5111,7 +5331,7 @@
       </c>
       <c r="K13" s="18"/>
     </row>
-    <row r="14" spans="1:11" ht="219.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>274</v>
       </c>
@@ -5121,8 +5341,8 @@
       <c r="C14" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>106</v>
+      <c r="D14" s="13" t="s">
+        <v>322</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>201</v>
@@ -5136,13 +5356,15 @@
       <c r="H14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="13"/>
+      <c r="I14" s="13" t="s">
+        <v>324</v>
+      </c>
       <c r="J14" s="13" t="s">
         <v>11</v>
       </c>
       <c r="K14" s="18"/>
     </row>
-    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>275</v>
       </c>
@@ -5152,11 +5374,11 @@
       <c r="C15" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>108</v>
+      <c r="D15" s="13" t="s">
+        <v>322</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>29</v>
@@ -5167,13 +5389,15 @@
       <c r="H15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="13"/>
+      <c r="I15" s="13" t="s">
+        <v>324</v>
+      </c>
       <c r="J15" s="13" t="s">
         <v>155</v>
       </c>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>276</v>
       </c>
@@ -5183,11 +5407,11 @@
       <c r="C16" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>110</v>
+      <c r="D16" s="13" t="s">
+        <v>322</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>29</v>
@@ -5198,13 +5422,15 @@
       <c r="H16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="13"/>
+      <c r="I16" s="13" t="s">
+        <v>324</v>
+      </c>
       <c r="J16" s="13" t="s">
         <v>155</v>
       </c>
       <c r="K16" s="18"/>
     </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>277</v>
       </c>
@@ -5214,11 +5440,11 @@
       <c r="C17" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>112</v>
+      <c r="D17" s="13" t="s">
+        <v>322</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>29</v>
@@ -5229,13 +5455,15 @@
       <c r="H17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="13"/>
+      <c r="I17" s="13" t="s">
+        <v>324</v>
+      </c>
       <c r="J17" s="13" t="s">
         <v>155</v>
       </c>
       <c r="K17" s="18"/>
     </row>
-    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>278</v>
       </c>
@@ -5246,10 +5474,10 @@
         <v>69</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>73</v>
+        <v>322</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>29</v>
@@ -5260,7 +5488,9 @@
       <c r="H18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="13"/>
+      <c r="I18" s="13" t="s">
+        <v>324</v>
+      </c>
       <c r="J18" s="13" t="s">
         <v>11</v>
       </c>
